--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_per_day_fixed_period_8_sine_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_per_day_fixed_period_8_sine_0.1_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.68000000000011</v>
+        <v>22.29000000000005</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>9.964389071648316e-05</v>
+        <v>8.734290817491441e-06</v>
       </c>
       <c r="I2" t="n">
-        <v>9.964389071648316e-05</v>
+        <v>8.734290817491441e-06</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>43.62931151396461</v>
+        <v>51.35653055372318</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[20.58701527255232, 66.6716077553769]</t>
+          <t>[30.571660135476193, 72.14140097197017]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.000414419563554036</v>
+        <v>9.945119870513608e-06</v>
       </c>
       <c r="O2" t="n">
-        <v>0.000414419563554036</v>
+        <v>9.945119870513608e-06</v>
       </c>
       <c r="P2" t="n">
-        <v>1.930868758062195</v>
+        <v>1.50318447288881</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.3270791789938858, 2.5346583371305034]</t>
+          <t>[1.0126054398958093, 1.9937635058818106]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>6.90180217421954e-08</v>
+        <v>1.737112302890864e-07</v>
       </c>
       <c r="S2" t="n">
-        <v>6.90180217421954e-08</v>
+        <v>1.737112302890864e-07</v>
       </c>
       <c r="T2" t="n">
-        <v>48.28920984433805</v>
+        <v>64.60536326454222</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[35.465070710504946, 61.11334897817116]</t>
+          <t>[51.77148228817566, 77.43924424090878]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.39859079872906e-09</v>
+        <v>3.370637102761975e-13</v>
       </c>
       <c r="W2" t="n">
-        <v>1.39859079872906e-09</v>
+        <v>3.370637102761975e-13</v>
       </c>
       <c r="X2" t="n">
-        <v>15.71027027027035</v>
+        <v>16.95735735735739</v>
       </c>
       <c r="Y2" t="n">
-        <v>13.53081081081088</v>
+        <v>15.21699699699703</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.88972972972982</v>
+        <v>18.69771771771775</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.68000000000011</v>
+        <v>22.29000000000005</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0007657435791036393</v>
+        <v>1.354744654569195e-06</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0007657435791036393</v>
+        <v>1.354744654569195e-06</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>41.77246636186705</v>
+        <v>59.86932485244065</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[13.440922890301032, 70.10400983343305]</t>
+          <t>[37.93655457441476, 81.80209513046654]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.00476781695500228</v>
+        <v>1.72595551473087e-06</v>
       </c>
       <c r="O3" t="n">
-        <v>0.00476781695500228</v>
+        <v>1.72595551473087e-06</v>
       </c>
       <c r="P3" t="n">
-        <v>2.383710942363426</v>
+        <v>1.389973926813502</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.7799213632951174, 2.987500521431734]</t>
+          <t>[0.9497106920761942, 1.8302371615508095]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>4.055595859142613e-10</v>
+        <v>9.144014234685471e-08</v>
       </c>
       <c r="S3" t="n">
-        <v>4.055595859142613e-10</v>
+        <v>9.144014234685471e-08</v>
       </c>
       <c r="T3" t="n">
-        <v>65.39156645786927</v>
+        <v>56.9912262240519</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[50.81623953602959, 79.96689337970895]</t>
+          <t>[43.41909915983143, 70.56335328827237]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.126521098626654e-11</v>
+        <v>7.511968824758242e-11</v>
       </c>
       <c r="W3" t="n">
-        <v>1.126521098626654e-11</v>
+        <v>7.511968824758242e-11</v>
       </c>
       <c r="X3" t="n">
-        <v>14.07567567567575</v>
+        <v>17.35897897897901</v>
       </c>
       <c r="Y3" t="n">
-        <v>11.89621621621628</v>
+        <v>15.79711711711715</v>
       </c>
       <c r="Z3" t="n">
-        <v>16.25513513513521</v>
+        <v>18.92084084084088</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.68000000000011</v>
+        <v>22.29000000000005</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.006107955337442017</v>
+        <v>3.34213613404355e-05</v>
       </c>
       <c r="I4" t="n">
-        <v>0.006107955337442017</v>
+        <v>3.34213613404355e-05</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>34.79750316530323</v>
+        <v>40.18797601458566</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[6.17149962907947, 63.42350670152698]</t>
+          <t>[17.863147389281185, 62.512804639890135]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.01831478984557688</v>
+        <v>0.0007311921283950085</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01831478984557688</v>
+        <v>0.0007311921283950085</v>
       </c>
       <c r="P4" t="n">
-        <v>2.333395144107734</v>
+        <v>2.371131992799504</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.628973968528041, 3.037816319687427]</t>
+          <t>[1.86797401024258, 2.8742899753564273]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>3.131067738415538e-08</v>
+        <v>2.599032100647491e-12</v>
       </c>
       <c r="S4" t="n">
-        <v>3.131067738415538e-08</v>
+        <v>2.599032100647491e-12</v>
       </c>
       <c r="T4" t="n">
-        <v>55.46136873978944</v>
+        <v>55.18099333959985</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[40.74804722297489, 70.17469025660398]</t>
+          <t>[43.83283164538821, 66.52915503381149]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.361243118225275e-09</v>
+        <v>9.952039192739903e-13</v>
       </c>
       <c r="W4" t="n">
-        <v>1.361243118225275e-09</v>
+        <v>9.952039192739903e-13</v>
       </c>
       <c r="X4" t="n">
-        <v>14.25729729729736</v>
+        <v>13.87825825825829</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.71459459459465</v>
+        <v>12.0932732732733</v>
       </c>
       <c r="Z4" t="n">
-        <v>16.80000000000008</v>
+        <v>15.66324324324327</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.68000000000011</v>
+        <v>22.29000000000005</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0002179234475341296</v>
+        <v>0.002975988263722251</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0002179234475341296</v>
+        <v>0.002975988263722251</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>39.46583571662806</v>
+        <v>42.74414297858864</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[16.025745947579296, 62.90592548567683]</t>
+          <t>[11.468900175015747, 74.01938578216154]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.001458905526125376</v>
+        <v>0.008492124561638503</v>
       </c>
       <c r="O5" t="n">
-        <v>0.001458905526125376</v>
+        <v>0.008492124561638503</v>
       </c>
       <c r="P5" t="n">
-        <v>-2.578684660604235</v>
+        <v>2.735921530153274</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-3.1824742396725436, -1.974895081535926]</t>
+          <t>[1.8931319093704264, 3.5787111509361207]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>4.663447406016985e-11</v>
+        <v>4.944069398327144e-08</v>
       </c>
       <c r="S5" t="n">
-        <v>4.663447406016985e-11</v>
+        <v>4.944069398327144e-08</v>
       </c>
       <c r="T5" t="n">
-        <v>45.29590968622011</v>
+        <v>76.54044209522522</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[32.78119764475212, 57.810621727688094]</t>
+          <t>[59.3280508981862, 93.75283329226423]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>3.794362601894363e-09</v>
+        <v>1.460431775512916e-11</v>
       </c>
       <c r="W5" t="n">
-        <v>3.794362601894363e-09</v>
+        <v>1.460431775512916e-11</v>
       </c>
       <c r="X5" t="n">
-        <v>9.308108108108152</v>
+        <v>12.58414414414417</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.128648648648682</v>
+        <v>9.594294294294315</v>
       </c>
       <c r="Z5" t="n">
-        <v>11.48756756756762</v>
+        <v>15.57399399399402</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.68000000000011</v>
+        <v>22.29000000000005</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0002340377640434044</v>
+        <v>0.01619238167198733</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0002340377640434044</v>
+        <v>0.01619238167198733</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>45.55671437248456</v>
+        <v>33.47831466565922</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[21.605434007592507, 69.50799473737662]</t>
+          <t>[5.164746767990152, 61.791882563328286]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.0003930201484989571</v>
+        <v>0.02153261729615141</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0003930201484989571</v>
+        <v>0.02153261729615141</v>
       </c>
       <c r="P6" t="n">
-        <v>3.037816319687427</v>
+        <v>2.987500521431735</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[2.3459740936716575, 3.7296585457031974]</t>
+          <t>[1.893131909370426, 4.081869133493045]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>2.108846430814992e-11</v>
+        <v>1.723478388226951e-06</v>
       </c>
       <c r="S6" t="n">
-        <v>2.108846430814992e-11</v>
+        <v>1.723478388226951e-06</v>
       </c>
       <c r="T6" t="n">
-        <v>61.80611878800016</v>
+        <v>58.53040457320841</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[47.01642252446724, 76.5958150515331]</t>
+          <t>[42.151297800553266, 74.90951134586356]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>8.591594102824729e-11</v>
+        <v>5.198503849612734e-09</v>
       </c>
       <c r="W6" t="n">
-        <v>8.591594102824729e-11</v>
+        <v>5.198503849612734e-09</v>
       </c>
       <c r="X6" t="n">
-        <v>11.71459459459465</v>
+        <v>11.69165165165168</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.217297297297343</v>
+        <v>7.809309309309324</v>
       </c>
       <c r="Z6" t="n">
-        <v>14.21189189189196</v>
+        <v>15.57399399399403</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.68000000000011</v>
+        <v>22.29000000000005</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1.058120954622321e-05</v>
+        <v>0.001562938422437044</v>
       </c>
       <c r="I7" t="n">
-        <v>1.058120954622321e-05</v>
+        <v>0.001562938422437044</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>47.77116181907461</v>
+        <v>40.99500151383059</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[23.573948108403044, 71.96837552974617]</t>
+          <t>[11.498182386508198, 70.49182064115297]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.000251079138586352</v>
+        <v>0.007518058026373398</v>
       </c>
       <c r="O7" t="n">
-        <v>0.000251079138586352</v>
+        <v>0.007518058026373398</v>
       </c>
       <c r="P7" t="n">
-        <v>-2.440316215401081</v>
+        <v>-2.377421467581465</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-2.918316298830159, -1.9623161319720022]</t>
+          <t>[-2.993789996213697, -1.7610529389492333]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2.158273559871304e-13</v>
+        <v>7.49938555699714e-10</v>
       </c>
       <c r="S7" t="n">
-        <v>2.158273559871304e-13</v>
+        <v>7.49938555699714e-10</v>
       </c>
       <c r="T7" t="n">
-        <v>63.06479517102279</v>
+        <v>60.33160255859414</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[50.61977992523887, 75.5098104168067]</t>
+          <t>[45.35718092714908, 75.30602419003921]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>2.731148640577885e-13</v>
+        <v>2.347828598203705e-10</v>
       </c>
       <c r="W7" t="n">
-        <v>2.731148640577885e-13</v>
+        <v>2.347828598203705e-10</v>
       </c>
       <c r="X7" t="n">
-        <v>8.808648648648692</v>
+        <v>8.434054054054073</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.083243243243276</v>
+        <v>6.247447447447461</v>
       </c>
       <c r="Z7" t="n">
-        <v>10.53405405405411</v>
+        <v>10.62066066066068</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.37000000000006</v>
+        <v>22.53000000000008</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.003703541677881672</v>
+        <v>0.01200020682428238</v>
       </c>
       <c r="I8" t="n">
-        <v>0.003703541677881672</v>
+        <v>0.01200020682428238</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>38.03371691185389</v>
+        <v>37.38881547951593</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[8.890634712651277, 67.1767991110565]</t>
+          <t>[5.893485161431016, 68.88414579760084]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.0116894333914872</v>
+        <v>0.0210467711576019</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0116894333914872</v>
+        <v>0.0210467711576019</v>
       </c>
       <c r="P8" t="n">
-        <v>-2.540947811912465</v>
+        <v>-2.050368778919465</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-3.2579479370560818, -1.823947686768848]</t>
+          <t>[-3.031526844905466, -1.0692107129334634]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>6.37020147742362e-09</v>
+        <v>0.0001210019735395917</v>
       </c>
       <c r="S8" t="n">
-        <v>6.37020147742362e-09</v>
+        <v>0.0001210019735395917</v>
       </c>
       <c r="T8" t="n">
-        <v>73.56909958789288</v>
+        <v>61.49451613569885</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[58.33002586396484, 88.80817331182092]</t>
+          <t>[44.81908059053005, 78.16995168086765]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.2427836537654e-12</v>
+        <v>2.377606111991781e-09</v>
       </c>
       <c r="W8" t="n">
-        <v>1.2427836537654e-12</v>
+        <v>2.377606111991781e-09</v>
       </c>
       <c r="X8" t="n">
-        <v>9.046526526526549</v>
+        <v>7.352132132132159</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.493793793793808</v>
+        <v>3.833933933933948</v>
       </c>
       <c r="Z8" t="n">
-        <v>11.59925925925929</v>
+        <v>10.87033033033037</v>
       </c>
     </row>
     <row r="9">
@@ -1167,7 +1167,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.37000000000006</v>
+        <v>22.53000000000008</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1192273144305315</v>
+        <v>0.007946494384599379</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1192273144305315</v>
+        <v>0.007946494384599379</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>19.52407850965403</v>
+        <v>36.62517956591463</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-4.558903406037217, 43.607060425345274]</t>
+          <t>[5.29506370881591, 67.95529542301335]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.1094826767512442</v>
+        <v>0.02297089628425919</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1094826767512442</v>
+        <v>0.02297089628425919</v>
       </c>
       <c r="P9" t="n">
-        <v>-2.012631930227695</v>
+        <v>-2.31452671976185</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-4.195079679568352, 0.16981581911296217]</t>
+          <t>[-3.0189478953415434, -1.6101055441821557]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.06980767973901347</v>
+        <v>3.76630475695805e-08</v>
       </c>
       <c r="S9" t="n">
-        <v>0.06980767973901347</v>
+        <v>3.76630475695805e-08</v>
       </c>
       <c r="T9" t="n">
-        <v>57.06820249688576</v>
+        <v>58.58691136626503</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[44.244660542275966, 69.89174445149555]</t>
+          <t>[42.8559034141809, 74.31791931834915]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.427813423049429e-11</v>
+        <v>1.852236808375096e-09</v>
       </c>
       <c r="W9" t="n">
-        <v>1.427813423049429e-11</v>
+        <v>1.852236808375096e-09</v>
       </c>
       <c r="X9" t="n">
-        <v>7.165565565565583</v>
+        <v>8.299339339339369</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0.6045945945945963</v>
+        <v>5.773453453453472</v>
       </c>
       <c r="Z9" t="n">
-        <v>14.93572572572576</v>
+        <v>10.82522522522527</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.37000000000006</v>
+        <v>22.53000000000008</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.04768194006926929</v>
+        <v>0.0002742537132096601</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04768194006926929</v>
+        <v>0.0002742537132096601</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>28.90519236993919</v>
+        <v>39.78043334139926</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[2.4246909558873497, 55.38569378399103]</t>
+          <t>[19.611131193606653, 59.949735489191866]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.03309531318156655</v>
+        <v>0.0002541054837099654</v>
       </c>
       <c r="O10" t="n">
-        <v>0.03309531318156655</v>
+        <v>0.0002541054837099654</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.559789745926464</v>
+        <v>-1.58494764505431</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-2.817684702318773, -0.30189478953415483]</t>
+          <t>[-2.251631971942234, -0.9182633181663862]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.01623233960783654</v>
+        <v>1.855429257657804e-05</v>
       </c>
       <c r="S10" t="n">
-        <v>0.01623233960783654</v>
+        <v>1.855429257657804e-05</v>
       </c>
       <c r="T10" t="n">
-        <v>67.24791453654582</v>
+        <v>60.28418935243605</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[51.56990278651769, 82.92592628657395]</t>
+          <t>[47.887656389933284, 72.68072231493882]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>4.125610963967574e-11</v>
+        <v>9.923173394099649e-13</v>
       </c>
       <c r="W10" t="n">
-        <v>4.125610963967574e-11</v>
+        <v>9.923173394099649e-13</v>
       </c>
       <c r="X10" t="n">
-        <v>5.553313313313328</v>
+        <v>5.683243243243265</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.07483483483484</v>
+        <v>3.292672672672686</v>
       </c>
       <c r="Z10" t="n">
-        <v>10.03179179179182</v>
+        <v>8.073813813813842</v>
       </c>
     </row>
     <row r="11">
@@ -1339,7 +1339,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22.37000000000006</v>
+        <v>22.53000000000008</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.002086759034188534</v>
+        <v>0.0002495429242670433</v>
       </c>
       <c r="I11" t="n">
-        <v>0.002086759034188534</v>
+        <v>0.0002495429242670433</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>38.79975380252034</v>
+        <v>36.99150841934529</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[11.872979597535036, 65.72652800750565]</t>
+          <t>[13.802181626658736, 60.18083521203185]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.005719114621922206</v>
+        <v>0.002430095332271343</v>
       </c>
       <c r="O11" t="n">
-        <v>0.005719114621922206</v>
+        <v>0.002430095332271343</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.6289474781961548</v>
+        <v>-0.7295790747075399</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-1.3207897042119248, 0.06289474781961513]</t>
+          <t>[-1.3082107546480017, -0.15094739476707808]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.07372611293926479</v>
+        <v>0.01462499499297687</v>
       </c>
       <c r="S11" t="n">
-        <v>0.07372611293926479</v>
+        <v>0.01462499499297687</v>
       </c>
       <c r="T11" t="n">
-        <v>57.49850491988715</v>
+        <v>50.88117762434176</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[42.55600087488907, 72.44100896488521]</t>
+          <t>[38.977640025434575, 62.784715223248945]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>7.980456295797467e-10</v>
+        <v>4.552624943698902e-11</v>
       </c>
       <c r="W11" t="n">
-        <v>7.980456295797467e-10</v>
+        <v>4.552624943698902e-11</v>
       </c>
       <c r="X11" t="n">
-        <v>2.239239239239247</v>
+        <v>2.616096096096108</v>
       </c>
       <c r="Y11" t="n">
-        <v>-0.2239239239239219</v>
+        <v>0.5412612612612673</v>
       </c>
       <c r="Z11" t="n">
-        <v>4.702402402402415</v>
+        <v>4.690930930930948</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>22.37000000000006</v>
+        <v>22.53000000000008</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>9.664835259259874e-05</v>
+        <v>0.008026681844951367</v>
       </c>
       <c r="I12" t="n">
-        <v>9.664835259259874e-05</v>
+        <v>0.008026681844951367</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>43.42252223512931</v>
+        <v>37.38244067060003</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[18.585416445395666, 68.25962802486296]</t>
+          <t>[6.886451092450713, 67.87843024874934]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.0009970834288004493</v>
+        <v>0.01741472453100079</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0009970834288004493</v>
+        <v>0.01741472453100079</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.4402632347373086</v>
+        <v>-0.6666843268879239</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-1.0566317633695395, 0.17610529389492235]</t>
+          <t>[-1.4214213007233099, 0.08805264694746207]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.1571703899834811</v>
+        <v>0.08197430646721249</v>
       </c>
       <c r="S12" t="n">
-        <v>0.1571703899834811</v>
+        <v>0.08197430646721249</v>
       </c>
       <c r="T12" t="n">
-        <v>54.16686384155584</v>
+        <v>62.14238629683634</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[40.88973752214463, 67.44399016096705]</t>
+          <t>[45.667316974609584, 78.6174556190631]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>1.669562266215507e-10</v>
+        <v>1.338821942198365e-09</v>
       </c>
       <c r="W12" t="n">
-        <v>1.669562266215507e-10</v>
+        <v>1.338821942198365e-09</v>
       </c>
       <c r="X12" t="n">
-        <v>1.56746746746747</v>
+        <v>2.390570570570578</v>
       </c>
       <c r="Y12" t="n">
-        <v>-0.6269869869869877</v>
+        <v>-0.3157357357357395</v>
       </c>
       <c r="Z12" t="n">
-        <v>3.761921921921927</v>
+        <v>5.096876876876895</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>22.37000000000006</v>
+        <v>22.53000000000008</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>3.012773184674078e-05</v>
+        <v>0.001396897846693168</v>
       </c>
       <c r="I13" t="n">
-        <v>3.012773184674078e-05</v>
+        <v>0.001396897846693168</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>48.04118065718473</v>
+        <v>37.9110849690749</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[26.80991469989138, 69.27244661447807]</t>
+          <t>[10.729909375081547, 65.09226056306825]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.950660193785538e-05</v>
+        <v>0.007323517266534019</v>
       </c>
       <c r="O13" t="n">
-        <v>3.950660193785538e-05</v>
+        <v>0.007323517266534019</v>
       </c>
       <c r="P13" t="n">
-        <v>0.04402632347373103</v>
+        <v>-0.5408948312486928</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-0.5471843060306538, 0.6352369529781159]</t>
+          <t>[-1.2453160068283866, 0.1635263443310011]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.8814455765559086</v>
+        <v>0.1289778667008119</v>
       </c>
       <c r="S13" t="n">
-        <v>0.8814455765559086</v>
+        <v>0.1289778667008119</v>
       </c>
       <c r="T13" t="n">
-        <v>61.93761447998691</v>
+        <v>61.17433341612627</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[48.25549659110091, 75.6197323688729]</t>
+          <t>[47.07931483012536, 75.26935200212719]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>8.64996962945952e-12</v>
+        <v>2.947464494695851e-11</v>
       </c>
       <c r="W13" t="n">
-        <v>8.64996962945952e-12</v>
+        <v>2.947464494695851e-11</v>
       </c>
       <c r="X13" t="n">
-        <v>22.21325325325331</v>
+        <v>1.939519519519525</v>
       </c>
       <c r="Y13" t="n">
-        <v>20.10836836836842</v>
+        <v>-0.5863663663663718</v>
       </c>
       <c r="Z13" t="n">
-        <v>24.3181381381382</v>
+        <v>4.465405405405422</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>22.37000000000006</v>
+        <v>22.53000000000008</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.06777721549335869</v>
+        <v>4.81074678135851e-05</v>
       </c>
       <c r="I14" t="n">
-        <v>0.06777721549335869</v>
+        <v>4.81074678135851e-05</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>27.47970249182312</v>
+        <v>51.51242216520922</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-1.1442286954785885, 56.103633679124826]</t>
+          <t>[26.55860449452078, 76.46623983589767]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.05946871218816652</v>
+        <v>0.0001422849177281638</v>
       </c>
       <c r="O14" t="n">
-        <v>0.05946871218816652</v>
+        <v>0.0001422849177281638</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.1257894956392311</v>
+        <v>0.06918422260157797</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-1.553500271144503, 1.3019212798660407]</t>
+          <t>[-0.5346053564667299, 0.6729738016698859]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.8599481266462665</v>
+        <v>0.8185296890422689</v>
       </c>
       <c r="S14" t="n">
-        <v>0.8599481266462665</v>
+        <v>0.8185296890422689</v>
       </c>
       <c r="T14" t="n">
-        <v>55.39926508738121</v>
+        <v>66.20089372326002</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[38.514199549200015, 72.2843306255624]</t>
+          <t>[51.13861458731661, 81.26317285920344]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>3.89178869131257e-08</v>
+        <v>2.050870584469067e-11</v>
       </c>
       <c r="W14" t="n">
-        <v>3.89178869131257e-08</v>
+        <v>2.050870584469067e-11</v>
       </c>
       <c r="X14" t="n">
-        <v>0.44784784784785</v>
+        <v>22.281921921922</v>
       </c>
       <c r="Y14" t="n">
-        <v>-4.635225225225238</v>
+        <v>20.11687687687695</v>
       </c>
       <c r="Z14" t="n">
-        <v>5.530920920920938</v>
+        <v>24.44696696696705</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>22.37000000000006</v>
+        <v>22.53000000000008</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>8.074483459119541e-05</v>
+        <v>0.001839345535384229</v>
       </c>
       <c r="I15" t="n">
-        <v>8.074483459119541e-05</v>
+        <v>0.001839345535384229</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>45.73396785918461</v>
+        <v>40.87347527598847</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[19.7349572418579, 71.73297847651132]</t>
+          <t>[12.730749589305034, 69.0162009626719]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.0009351707515583563</v>
+        <v>0.00537609953567042</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0009351707515583563</v>
+        <v>0.00537609953567042</v>
       </c>
       <c r="P15" t="n">
-        <v>0.7861843477451931</v>
+        <v>0.6729738016698859</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[0.2704474156243455, 1.3019212798660407]</t>
+          <t>[0.006289474781961957, 1.3396581285578097]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.003619394676324772</v>
+        <v>0.04796596696055788</v>
       </c>
       <c r="S15" t="n">
-        <v>0.003619394676324772</v>
+        <v>0.04796596696055788</v>
       </c>
       <c r="T15" t="n">
-        <v>53.70704449873099</v>
+        <v>46.47041997034335</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[40.36466343494958, 67.0494255625124]</t>
+          <t>[31.201886030640168, 61.73895391004653]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>2.406701504753528e-10</v>
+        <v>2.001614016755582e-07</v>
       </c>
       <c r="W15" t="n">
-        <v>2.406701504753528e-10</v>
+        <v>2.001614016755582e-07</v>
       </c>
       <c r="X15" t="n">
-        <v>19.570950950951</v>
+        <v>20.11687687687695</v>
       </c>
       <c r="Y15" t="n">
-        <v>17.73477477477482</v>
+        <v>17.72630630630637</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.40712712712719</v>
+        <v>22.50744744744753</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_per_day_fixed_period_8_sine_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_per_day_fixed_period_8_sine_0.1_.xlsx
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.29000000000005</v>
+        <v>22.46000000000007</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>8.734290817491441e-06</v>
+        <v>0.09764354923192409</v>
       </c>
       <c r="I2" t="n">
-        <v>8.734290817491441e-06</v>
+        <v>0.09764354923192409</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>51.35653055372318</v>
+        <v>24.8788422356592</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[30.571660135476193, 72.14140097197017]</t>
+          <t>[-4.094042632957027, 53.85172710427542]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>9.945119870513608e-06</v>
+        <v>0.09057490504381227</v>
       </c>
       <c r="O2" t="n">
-        <v>9.945119870513608e-06</v>
+        <v>0.09057490504381227</v>
       </c>
       <c r="P2" t="n">
-        <v>1.50318447288881</v>
+        <v>1.201289683354656</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.0126054398958093, 1.9937635058818106]</t>
+          <t>[-0.6603948521059628, 3.062974218815274]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>1.737112302890864e-07</v>
+        <v>0.2003425893483823</v>
       </c>
       <c r="S2" t="n">
-        <v>1.737112302890864e-07</v>
+        <v>0.2003425893483823</v>
       </c>
       <c r="T2" t="n">
-        <v>64.60536326454222</v>
+        <v>56.47837188859661</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[51.77148228817566, 77.43924424090878]</t>
+          <t>[40.884044129864435, 72.07269964732879]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>3.370637102761975e-13</v>
+        <v>3.734736520044635e-09</v>
       </c>
       <c r="W2" t="n">
-        <v>3.370637102761975e-13</v>
+        <v>3.734736520044635e-09</v>
       </c>
       <c r="X2" t="n">
-        <v>16.95735735735739</v>
+        <v>18.1658458458459</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.21699699699703</v>
+        <v>11.51103103103107</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.69771771771775</v>
+        <v>24.82066066066074</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.29000000000005</v>
+        <v>22.46000000000007</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1.354744654569195e-06</v>
+        <v>0.0001277584174219637</v>
       </c>
       <c r="I3" t="n">
-        <v>1.354744654569195e-06</v>
+        <v>0.0001277584174219637</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>59.86932485244065</v>
+        <v>48.73188087409557</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[37.93655457441476, 81.80209513046654]</t>
+          <t>[19.50606892884049, 77.95769281935064]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1.72595551473087e-06</v>
+        <v>0.001603914150424712</v>
       </c>
       <c r="O3" t="n">
-        <v>1.72595551473087e-06</v>
+        <v>0.001603914150424712</v>
       </c>
       <c r="P3" t="n">
-        <v>1.389973926813502</v>
+        <v>2.35855304323558</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.9497106920761942, 1.8302371615508095]</t>
+          <t>[1.8050792624229635, 2.912026824048197]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>9.144014234685471e-08</v>
+        <v>4.965938771306355e-11</v>
       </c>
       <c r="S3" t="n">
-        <v>9.144014234685471e-08</v>
+        <v>4.965938771306355e-11</v>
       </c>
       <c r="T3" t="n">
-        <v>56.9912262240519</v>
+        <v>59.63023223192666</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[43.41909915983143, 70.56335328827237]</t>
+          <t>[44.69096944901383, 74.5694950148395]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>7.511968824758242e-11</v>
+        <v>3.021785044410308e-10</v>
       </c>
       <c r="W3" t="n">
-        <v>7.511968824758242e-11</v>
+        <v>3.021785044410308e-10</v>
       </c>
       <c r="X3" t="n">
-        <v>17.35897897897901</v>
+        <v>14.02906906906911</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.79711711711715</v>
+        <v>12.05061061061065</v>
       </c>
       <c r="Z3" t="n">
-        <v>18.92084084084088</v>
+        <v>16.00752752752758</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.29000000000005</v>
+        <v>22.46000000000007</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>3.34213613404355e-05</v>
+        <v>0.0009284459799289158</v>
       </c>
       <c r="I4" t="n">
-        <v>3.34213613404355e-05</v>
+        <v>0.0009284459799289158</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>40.18797601458566</v>
+        <v>32.89882054644578</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[17.863147389281185, 62.512804639890135]</t>
+          <t>[10.375348481376449, 55.422292611515104]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.0007311921283950085</v>
+        <v>0.005139606138107489</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0007311921283950085</v>
+        <v>0.005139606138107489</v>
       </c>
       <c r="P4" t="n">
-        <v>2.371131992799504</v>
+        <v>2.295658295415965</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.86797401024258, 2.8742899753564273]</t>
+          <t>[1.6667108172198102, 2.92460577361212]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>2.599032100647491e-12</v>
+        <v>3.077471610879456e-09</v>
       </c>
       <c r="S4" t="n">
-        <v>2.599032100647491e-12</v>
+        <v>3.077471610879456e-09</v>
       </c>
       <c r="T4" t="n">
-        <v>55.18099333959985</v>
+        <v>58.45413057496253</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[43.83283164538821, 66.52915503381149]</t>
+          <t>[46.79973039777866, 70.1085307521464]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>9.952039192739903e-13</v>
+        <v>3.781419621873283e-13</v>
       </c>
       <c r="W4" t="n">
-        <v>9.952039192739903e-13</v>
+        <v>3.781419621873283e-13</v>
       </c>
       <c r="X4" t="n">
-        <v>13.87825825825829</v>
+        <v>14.25389389389394</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.0932732732733</v>
+        <v>12.00564564564568</v>
       </c>
       <c r="Z4" t="n">
-        <v>15.66324324324327</v>
+        <v>16.50214214214219</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.29000000000005</v>
+        <v>22.46000000000007</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.002975988263722251</v>
+        <v>0.02325241242248677</v>
       </c>
       <c r="I5" t="n">
-        <v>0.002975988263722251</v>
+        <v>0.02325241242248677</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>42.74414297858864</v>
+        <v>30.90672703937103</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[11.468900175015747, 74.01938578216154]</t>
+          <t>[2.8323291230780967, 58.98112495566396]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.008492124561638503</v>
+        <v>0.0316966342943692</v>
       </c>
       <c r="O5" t="n">
-        <v>0.008492124561638503</v>
+        <v>0.0316966342943692</v>
       </c>
       <c r="P5" t="n">
-        <v>2.735921530153274</v>
+        <v>2.899447874484274</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.8931319093704264, 3.5787111509361207]</t>
+          <t>[1.6415529180919641, 4.157342830876583]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>4.944069398327144e-08</v>
+        <v>2.993653085381354e-05</v>
       </c>
       <c r="S5" t="n">
-        <v>4.944069398327144e-08</v>
+        <v>2.993653085381354e-05</v>
       </c>
       <c r="T5" t="n">
-        <v>76.54044209522522</v>
+        <v>62.06366341660642</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[59.3280508981862, 93.75283329226423]</t>
+          <t>[46.224232780932084, 77.90309405228075]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.460431775512916e-11</v>
+        <v>4.954814336599611e-10</v>
       </c>
       <c r="W5" t="n">
-        <v>1.460431775512916e-11</v>
+        <v>4.954814336599611e-10</v>
       </c>
       <c r="X5" t="n">
-        <v>12.58414414414417</v>
+        <v>12.09557557557561</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.594294294294315</v>
+        <v>7.599079079079103</v>
       </c>
       <c r="Z5" t="n">
-        <v>15.57399399399402</v>
+        <v>16.59207207207212</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.29000000000005</v>
+        <v>22.46000000000007</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01619238167198733</v>
+        <v>5.071869081618718e-05</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01619238167198733</v>
+        <v>5.071869081618718e-05</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>33.47831466565922</v>
+        <v>41.26097191335029</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[5.164746767990152, 61.791882563328286]</t>
+          <t>[19.667449335288268, 62.85449449141231]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.02153261729615141</v>
+        <v>0.0003723843322183118</v>
       </c>
       <c r="O6" t="n">
-        <v>0.02153261729615141</v>
+        <v>0.0003723843322183118</v>
       </c>
       <c r="P6" t="n">
-        <v>2.987500521431735</v>
+        <v>-2.691895206679543</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[1.893131909370426, 4.081869133493045]</t>
+          <t>[-3.2453689874921596, -2.1384214258669263]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>1.723478388226951e-06</v>
+        <v>9.883205365213144e-13</v>
       </c>
       <c r="S6" t="n">
-        <v>1.723478388226951e-06</v>
+        <v>9.883205365213144e-13</v>
       </c>
       <c r="T6" t="n">
-        <v>58.53040457320841</v>
+        <v>59.92553191311836</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[42.151297800553266, 74.90951134586356]</t>
+          <t>[47.98667660079407, 71.86438722544266]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>5.198503849612734e-09</v>
+        <v>3.692601779903271e-13</v>
       </c>
       <c r="W6" t="n">
-        <v>5.198503849612734e-09</v>
+        <v>3.692601779903271e-13</v>
       </c>
       <c r="X6" t="n">
-        <v>11.69165165165168</v>
+        <v>9.622502502502536</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.809309309309324</v>
+        <v>7.64404404404407</v>
       </c>
       <c r="Z6" t="n">
-        <v>15.57399399399403</v>
+        <v>11.600960960961</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.29000000000005</v>
+        <v>22.46000000000007</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001562938422437044</v>
+        <v>1.221001499351893e-06</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001562938422437044</v>
+        <v>1.221001499351893e-06</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>40.99500151383059</v>
+        <v>60.24884422365</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[11.498182386508198, 70.49182064115297]</t>
+          <t>[34.35311495776642, 86.14457348953357]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.007518058026373398</v>
+        <v>2.596457316639267e-05</v>
       </c>
       <c r="O7" t="n">
-        <v>0.007518058026373398</v>
+        <v>2.596457316639267e-05</v>
       </c>
       <c r="P7" t="n">
-        <v>-2.377421467581465</v>
+        <v>-2.666737307551696</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-2.993789996213697, -1.7610529389492333]</t>
+          <t>[-3.1321584414168506, -2.2013161736865414]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>7.49938555699714e-10</v>
+        <v>4.884981308350689e-15</v>
       </c>
       <c r="S7" t="n">
-        <v>7.49938555699714e-10</v>
+        <v>4.884981308350689e-15</v>
       </c>
       <c r="T7" t="n">
-        <v>60.33160255859414</v>
+        <v>67.94381799431687</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[45.35718092714908, 75.30602419003921]</t>
+          <t>[53.77960964451261, 82.10802634412113]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>2.347828598203705e-10</v>
+        <v>1.512789893354238e-12</v>
       </c>
       <c r="W7" t="n">
-        <v>2.347828598203705e-10</v>
+        <v>1.512789893354238e-12</v>
       </c>
       <c r="X7" t="n">
-        <v>8.434054054054073</v>
+        <v>9.532572572572603</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.247447447447461</v>
+        <v>7.868868868868893</v>
       </c>
       <c r="Z7" t="n">
-        <v>10.62066066066068</v>
+        <v>11.19627627627631</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.53000000000008</v>
+        <v>22.32000000000005</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01200020682428238</v>
+        <v>5.399200807332249e-05</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01200020682428238</v>
+        <v>5.399200807332249e-05</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>37.38881547951593</v>
+        <v>51.65566010905563</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[5.893485161431016, 68.88414579760084]</t>
+          <t>[22.769535220526862, 80.5417849975844]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.0210467711576019</v>
+        <v>0.0007853904800054767</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0210467711576019</v>
+        <v>0.0007853904800054767</v>
       </c>
       <c r="P8" t="n">
-        <v>-2.050368778919465</v>
+        <v>-2.402579366709311</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-3.031526844905466, -1.0692107129334634]</t>
+          <t>[-2.905737349266235, -1.8994213841523875]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.0001210019735395917</v>
+        <v>1.739941524192545e-12</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0001210019735395917</v>
+        <v>1.739941524192545e-12</v>
       </c>
       <c r="T8" t="n">
-        <v>61.49451613569885</v>
+        <v>58.19418948314622</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[44.81908059053005, 78.16995168086765]</t>
+          <t>[43.4747198543523, 72.91365911194013]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2.377606111991781e-09</v>
+        <v>3.904085943418067e-10</v>
       </c>
       <c r="W8" t="n">
-        <v>2.377606111991781e-09</v>
+        <v>3.904085943418067e-10</v>
       </c>
       <c r="X8" t="n">
-        <v>7.352132132132159</v>
+        <v>8.534774774774794</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.833933933933948</v>
+        <v>6.747387387387404</v>
       </c>
       <c r="Z8" t="n">
-        <v>10.87033033033037</v>
+        <v>10.32216216216218</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.53000000000008</v>
+        <v>22.32000000000005</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.007946494384599379</v>
+        <v>0.0002364258504725658</v>
       </c>
       <c r="I9" t="n">
-        <v>0.007946494384599379</v>
+        <v>0.0002364258504725658</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>36.62517956591463</v>
+        <v>44.52479746661896</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[5.29506370881591, 67.95529542301335]</t>
+          <t>[19.555870027217082, 69.49372490602084]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.02297089628425919</v>
+        <v>0.0008095141382611359</v>
       </c>
       <c r="O9" t="n">
-        <v>0.02297089628425919</v>
+        <v>0.0008095141382611359</v>
       </c>
       <c r="P9" t="n">
-        <v>-2.31452671976185</v>
+        <v>-1.849105585896694</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-3.0189478953415434, -1.6101055441821557]</t>
+          <t>[-2.47805306409285, -1.2201581077005388]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>3.76630475695805e-08</v>
+        <v>4.08333402424077e-07</v>
       </c>
       <c r="S9" t="n">
-        <v>3.76630475695805e-08</v>
+        <v>4.08333402424077e-07</v>
       </c>
       <c r="T9" t="n">
-        <v>58.58691136626503</v>
+        <v>58.81234964227738</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[42.8559034141809, 74.31791931834915]</t>
+          <t>[45.13994773423961, 72.48475155031514]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.852236808375096e-09</v>
+        <v>3.804712100929919e-11</v>
       </c>
       <c r="W9" t="n">
-        <v>1.852236808375096e-09</v>
+        <v>3.804712100929919e-11</v>
       </c>
       <c r="X9" t="n">
-        <v>8.299339339339369</v>
+        <v>6.568648648648661</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.773453453453472</v>
+        <v>4.334414414414419</v>
       </c>
       <c r="Z9" t="n">
-        <v>10.82522522522527</v>
+        <v>8.802882882882905</v>
       </c>
     </row>
     <row r="10">
@@ -1253,7 +1253,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.53000000000008</v>
+        <v>22.32000000000005</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0002742537132096601</v>
+        <v>0.108646763587644</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0002742537132096601</v>
+        <v>0.108646763587644</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>39.78043334139926</v>
+        <v>26.8481049157309</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[19.611131193606653, 59.949735489191866]</t>
+          <t>[-4.2004481487088015, 57.896657980170595]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.0002541054837099654</v>
+        <v>0.08840726703578738</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0002541054837099654</v>
+        <v>0.08840726703578738</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.58494764505431</v>
+        <v>-1.283052855520156</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-2.251631971942234, -0.9182633181663862]</t>
+          <t>[-3.0818426431611585, 0.5157369321208471]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>1.855429257657804e-05</v>
+        <v>0.1577387509411214</v>
       </c>
       <c r="S10" t="n">
-        <v>1.855429257657804e-05</v>
+        <v>0.1577387509411214</v>
       </c>
       <c r="T10" t="n">
-        <v>60.28418935243605</v>
+        <v>51.15060825400521</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[47.887656389933284, 72.68072231493882]</t>
+          <t>[33.77439439803655, 68.52682210997386]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>9.923173394099649e-13</v>
+        <v>3.980336216180547e-07</v>
       </c>
       <c r="W10" t="n">
-        <v>9.923173394099649e-13</v>
+        <v>3.980336216180547e-07</v>
       </c>
       <c r="X10" t="n">
-        <v>5.683243243243265</v>
+        <v>4.557837837837848</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.292672672672686</v>
+        <v>-1.832072072072077</v>
       </c>
       <c r="Z10" t="n">
-        <v>8.073813813813842</v>
+        <v>10.94774774774777</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22.53000000000008</v>
+        <v>22.32000000000005</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0002495429242670433</v>
+        <v>0.0002291928588491476</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0002495429242670433</v>
+        <v>0.0002291928588491476</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>36.99150841934529</v>
+        <v>41.44152200062347</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[13.802181626658736, 60.18083521203185]</t>
+          <t>[16.69344691097176, 66.18959709027519]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.002430095332271343</v>
+        <v>0.001538916950130753</v>
       </c>
       <c r="O11" t="n">
-        <v>0.002430095332271343</v>
+        <v>0.001538916950130753</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.7295790747075399</v>
+        <v>-0.9685791164220783</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-1.3082107546480017, -0.15094739476707808]</t>
+          <t>[-1.58494764505431, -0.3522105877898465]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.01462499499297687</v>
+        <v>0.002780585060515151</v>
       </c>
       <c r="S11" t="n">
-        <v>0.01462499499297687</v>
+        <v>0.002780585060515151</v>
       </c>
       <c r="T11" t="n">
-        <v>50.88117762434176</v>
+        <v>59.77231334260289</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[38.977640025434575, 62.784715223248945]</t>
+          <t>[46.67559523381273, 72.86903145139304]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>4.552624943698902e-11</v>
+        <v>6.797007401360133e-12</v>
       </c>
       <c r="W11" t="n">
-        <v>4.552624943698902e-11</v>
+        <v>6.797007401360133e-12</v>
       </c>
       <c r="X11" t="n">
-        <v>2.616096096096108</v>
+        <v>3.440720720720726</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.5412612612612673</v>
+        <v>1.251171171171172</v>
       </c>
       <c r="Z11" t="n">
-        <v>4.690930930930948</v>
+        <v>5.630270270270281</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>22.53000000000008</v>
+        <v>22.32000000000005</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.008026681844951367</v>
+        <v>0.01118407288630729</v>
       </c>
       <c r="I12" t="n">
-        <v>0.008026681844951367</v>
+        <v>0.01118407288630729</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>37.38244067060003</v>
+        <v>35.0070278584327</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[6.886451092450713, 67.87843024874934]</t>
+          <t>[4.855887525925468, 65.15816819093993]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.01741472453100079</v>
+        <v>0.02386499073605175</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01741472453100079</v>
+        <v>0.02386499073605175</v>
       </c>
       <c r="P12" t="n">
         <v>-0.6666843268879239</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-1.4214213007233099, 0.08805264694746207]</t>
+          <t>[-1.553500271144503, 0.22013161736865516]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.08197430646721249</v>
+        <v>0.1369809213032014</v>
       </c>
       <c r="S12" t="n">
-        <v>0.08197430646721249</v>
+        <v>0.1369809213032014</v>
       </c>
       <c r="T12" t="n">
-        <v>62.14238629683634</v>
+        <v>63.69494826326802</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[45.667316974609584, 78.6174556190631]</t>
+          <t>[47.589072566160354, 79.80082396037568]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>1.338821942198365e-09</v>
+        <v>3.87223808573367e-10</v>
       </c>
       <c r="W12" t="n">
-        <v>1.338821942198365e-09</v>
+        <v>3.87223808573367e-10</v>
       </c>
       <c r="X12" t="n">
-        <v>2.390570570570578</v>
+        <v>2.368288288288294</v>
       </c>
       <c r="Y12" t="n">
-        <v>-0.3157357357357395</v>
+        <v>-0.7819819819819855</v>
       </c>
       <c r="Z12" t="n">
-        <v>5.096876876876895</v>
+        <v>5.518558558558574</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>22.53000000000008</v>
+        <v>22.32000000000005</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.001396897846693168</v>
+        <v>1.473801312434908e-06</v>
       </c>
       <c r="I13" t="n">
-        <v>0.001396897846693168</v>
+        <v>1.473801312434908e-06</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>37.9110849690749</v>
+        <v>52.56975414483081</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[10.729909375081547, 65.09226056306825]</t>
+          <t>[31.262858924940772, 73.87664936472085]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.007323517266534019</v>
+        <v>1.018760617510495e-05</v>
       </c>
       <c r="O13" t="n">
-        <v>0.007323517266534019</v>
+        <v>1.018760617510495e-05</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.5408948312486928</v>
+        <v>0.2075526678047313</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-1.2453160068283866, 0.1635263443310011]</t>
+          <t>[-0.2704474156243464, 0.6855527512338089]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.1289778667008119</v>
+        <v>0.3864653499705599</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1289778667008119</v>
+        <v>0.3864653499705599</v>
       </c>
       <c r="T13" t="n">
-        <v>61.17433341612627</v>
+        <v>66.79226943487149</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[47.07931483012536, 75.26935200212719]</t>
+          <t>[54.13367839795307, 79.4508604717899]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>2.947464494695851e-11</v>
+        <v>7.482903185973555e-14</v>
       </c>
       <c r="W13" t="n">
-        <v>2.947464494695851e-11</v>
+        <v>7.482903185973555e-14</v>
       </c>
       <c r="X13" t="n">
-        <v>1.939519519519525</v>
+        <v>21.58270270270275</v>
       </c>
       <c r="Y13" t="n">
-        <v>-0.5863663663663718</v>
+        <v>19.88468468468473</v>
       </c>
       <c r="Z13" t="n">
-        <v>4.465405405405422</v>
+        <v>23.28072072072077</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>22.53000000000008</v>
+        <v>22.32000000000005</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>4.81074678135851e-05</v>
+        <v>7.822225199716204e-05</v>
       </c>
       <c r="I14" t="n">
-        <v>4.81074678135851e-05</v>
+        <v>7.822225199716204e-05</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>51.51242216520922</v>
+        <v>52.69609113538</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[26.55860449452078, 76.46623983589767]</t>
+          <t>[24.403483386843476, 80.98869888391653]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.0001422849177281638</v>
+        <v>0.0005008479553070266</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0001422849177281638</v>
+        <v>0.0005008479553070266</v>
       </c>
       <c r="P14" t="n">
-        <v>0.06918422260157797</v>
+        <v>0.4591316590831935</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-0.5346053564667299, 0.6729738016698859]</t>
+          <t>[-0.1195000208572683, 1.0377633390236554]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.8185296890422689</v>
+        <v>0.1170092171968076</v>
       </c>
       <c r="S14" t="n">
-        <v>0.8185296890422689</v>
+        <v>0.1170092171968076</v>
       </c>
       <c r="T14" t="n">
-        <v>66.20089372326002</v>
+        <v>58.13178530782955</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[51.13861458731661, 81.26317285920344]</t>
+          <t>[42.4660425371227, 73.7975280785364]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>2.050870584469067e-11</v>
+        <v>2.031544710234812e-09</v>
       </c>
       <c r="W14" t="n">
-        <v>2.050870584469067e-11</v>
+        <v>2.031544710234812e-09</v>
       </c>
       <c r="X14" t="n">
-        <v>22.281921921922</v>
+        <v>20.68900900900905</v>
       </c>
       <c r="Y14" t="n">
-        <v>20.11687687687695</v>
+        <v>18.63351351351355</v>
       </c>
       <c r="Z14" t="n">
-        <v>24.44696696696705</v>
+        <v>22.74450450450455</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>22.53000000000008</v>
+        <v>22.32000000000005</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.001839345535384229</v>
+        <v>0.0007589646593954003</v>
       </c>
       <c r="I15" t="n">
-        <v>0.001839345535384229</v>
+        <v>0.0007589646593954003</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>40.87347527598847</v>
+        <v>43.63788169123213</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[12.730749589305034, 69.0162009626719]</t>
+          <t>[14.170527344957137, 73.10523603750713]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.00537609953567042</v>
+        <v>0.00460185565362381</v>
       </c>
       <c r="O15" t="n">
-        <v>0.00537609953567042</v>
+        <v>0.00460185565362381</v>
       </c>
       <c r="P15" t="n">
-        <v>0.6729738016698859</v>
+        <v>0.8616580451287321</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[0.006289474781961957, 1.3396581285578097]</t>
+          <t>[0.24528951649650033, 1.478026573760964]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.04796596696055788</v>
+        <v>0.00719995195385148</v>
       </c>
       <c r="S15" t="n">
-        <v>0.04796596696055788</v>
+        <v>0.00719995195385148</v>
       </c>
       <c r="T15" t="n">
-        <v>46.47041997034335</v>
+        <v>54.60214975346449</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[31.201886030640168, 61.73895391004653]</t>
+          <t>[39.694309858044875, 69.5099896488841]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>2.001614016755582e-07</v>
+        <v>2.82240342208695e-09</v>
       </c>
       <c r="W15" t="n">
-        <v>2.001614016755582e-07</v>
+        <v>2.82240342208695e-09</v>
       </c>
       <c r="X15" t="n">
-        <v>20.11687687687695</v>
+        <v>19.25909909909914</v>
       </c>
       <c r="Y15" t="n">
-        <v>17.72630630630637</v>
+        <v>17.06954954954959</v>
       </c>
       <c r="Z15" t="n">
-        <v>22.50744744744753</v>
+        <v>21.4486486486487</v>
       </c>
     </row>
   </sheetData>
